--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE088CAB-5C2C-4EC0-B273-0FCA29CE6548}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D4123F-520B-4D1D-AFDA-C5234F32C48F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1050" windowWidth="18975" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22635" yWindow="3135" windowWidth="16920" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
-    <sheet name="명령어모음" sheetId="1" r:id="rId2"/>
-    <sheet name="처리플로" sheetId="3" r:id="rId3"/>
+    <sheet name="REACT구성" sheetId="4" r:id="rId2"/>
+    <sheet name="라이브러리" sheetId="5" r:id="rId3"/>
+    <sheet name="명령어모음" sheetId="1" r:id="rId4"/>
+    <sheet name="처리플로" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. momenJS를 사용하지 않을 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.css는 class로 관리할 것</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -117,6 +115,70 @@
   </si>
   <si>
     <t>dev - 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React를 구성하는 3개의 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.index.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:src폴더에 포함되어 있다. 메인 프로그램이라고 할 수 있다. 여기에서 HTML템플릿 및</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASCRIPT의 컴포넌트를 조합하여 렌더링하고 실제 표시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.App.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:src폴더에 있다. 이것은 컴포넌트를 정의하는 프로그램이다. 실제로 화면에 표시되는 내용 등은 여기에서 정의된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:public폴더에 있다. 메인 프로그램인 index.js에 대응되는 것으로, HTML템플릿 파일이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 파일이 직접 표시되는 것은 아니고, index.js에 의해 읽어와서 렌더링된 결과가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. momenJS를 사용하지 않을 것 -&gt; 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moment.js 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm install moment --save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용  라이브러리 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.moment.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:기존 Date함수는 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조URL:https://momentjs.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E57280B-0601-48A1-B9EA-CD638730AA10}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -517,27 +579,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -548,59 +610,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE7D061-720C-47FE-8AC4-7DE36048BAAE}">
+  <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="1.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>12</v>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +676,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB5DE8-7419-4EDA-B549-8F1AF8520178}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="2.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706ACAB8-8C26-4878-97AF-1325468CD323}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D4123F-520B-4D1D-AFDA-C5234F32C48F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79B8D0-73C6-48E4-BF65-37394DADB77F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22635" yWindow="3135" windowWidth="16920" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2145" windowWidth="16920" windowHeight="9300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
     <sheet name="REACT구성" sheetId="4" r:id="rId2"/>
     <sheet name="라이브러리" sheetId="5" r:id="rId3"/>
     <sheet name="명령어모음" sheetId="1" r:id="rId4"/>
-    <sheet name="처리플로" sheetId="3" r:id="rId5"/>
+    <sheet name="스케쥴" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>참조URL:https://momentjs.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-11 휴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB5DE8-7419-4EDA-B549-8F1AF8520178}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -790,14 +794,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706ACAB8-8C26-4878-97AF-1325468CD323}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79B8D0-73C6-48E4-BF65-37394DADB77F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA81FFB-DF51-418D-82E0-D0D3FFBE7DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2145" windowWidth="16920" windowHeight="9300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="라이브러리" sheetId="5" r:id="rId3"/>
     <sheet name="명령어모음" sheetId="1" r:id="rId4"/>
     <sheet name="스케쥴" sheetId="3" r:id="rId5"/>
+    <sheet name="참조메소드" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -185,12 +186,19 @@
     <t>04-11 휴일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1.map()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://2dubbing.tistory.com/8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +256,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,10 +288,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -283,9 +300,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,7 +703,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -797,7 +816,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -812,4 +831,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB03D-7EE3-4A23-B5C9-71D4D71DB402}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{3F66C6BD-B404-477E-BF38-56880C8E89E2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA81FFB-DF51-418D-82E0-D0D3FFBE7DEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9CAF12-4E41-44D5-B019-A9F6A1C203E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2145" windowWidth="16920" windowHeight="9300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="2145" windowWidth="16920" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="명령어모음" sheetId="1" r:id="rId4"/>
     <sheet name="스케쥴" sheetId="3" r:id="rId5"/>
     <sheet name="참조메소드" sheetId="6" r:id="rId6"/>
+    <sheet name="참조" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,118 +81,134 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1.리액트를 사용할 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.버전관리는 깃을 사용할 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.css는 class로 관리할 것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.달력만들기의 본질을 헤치지 않는 선에서만 라이브러리 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 안의 엑셀 파일 관련 주의점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.열려있는 상태에서 커밋푸쉬 불가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:README에 기재하는 편이 좋다고 판단(2020-04-08)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃 브랜치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev - 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>React를 구성하는 3개의 파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.index.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:src폴더에 포함되어 있다. 메인 프로그램이라고 할 수 있다. 여기에서 HTML템플릿 및</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVASCRIPT의 컴포넌트를 조합하여 렌더링하고 실제 표시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.App.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:src폴더에 있다. 이것은 컴포넌트를 정의하는 프로그램이다. 실제로 화면에 표시되는 내용 등은 여기에서 정의된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:public폴더에 있다. 메인 프로그램인 index.js에 대응되는 것으로, HTML템플릿 파일이다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 파일이 직접 표시되는 것은 아니고, index.js에 의해 읽어와서 렌더링된 결과가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. momenJS를 사용하지 않을 것 -&gt; 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moment.js 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm install moment --save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용  라이브러리 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.moment.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">:기존 Date함수는 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조URL:https://momentjs.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-11 휴일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.map()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://2dubbing.tistory.com/8</t>
+  </si>
+  <si>
     <t>npm install --save react-icons</t>
-  </si>
-  <si>
-    <t>1.리액트를 사용할 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.버전관리는 깃을 사용할 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.css는 class로 관리할 것</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.달력만들기의 본질을 헤치지 않는 선에서만 라이브러리 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 안의 엑셀 파일 관련 주의점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.열려있는 상태에서 커밋푸쉬 불가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>:README에 기재하는 편이 좋다고 판단(2020-04-08)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃 브랜치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev - 개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>React를 구성하는 3개의 파일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.index.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>:src폴더에 포함되어 있다. 메인 프로그램이라고 할 수 있다. 여기에서 HTML템플릿 및</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVASCRIPT의 컴포넌트를 조합하여 렌더링하고 실제 표시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.App.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>:src폴더에 있다. 이것은 컴포넌트를 정의하는 프로그램이다. 실제로 화면에 표시되는 내용 등은 여기에서 정의된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.index.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">:public폴더에 있다. 메인 프로그램인 index.js에 대응되는 것으로, HTML템플릿 파일이다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 파일이 직접 표시되는 것은 아니고, index.js에 의해 읽어와서 렌더링된 결과가 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. momenJS를 사용하지 않을 것 -&gt; 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moment.js 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>npm install moment --save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용  라이브러리 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.moment.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">:기존 Date함수는 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참조URL:https://momentjs.com/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-11 휴일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.map()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://2dubbing.tistory.com/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타일관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 프로젝트에서는 SCSS확장자를 이용합니다. CSS와 문법적으로 매우 다르니 공부 필요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://medium.com/@jsh901220/simple-react-shopping-mall-%EB%A7%8C%EB%93%A4%EA%B8%B0-ebe3a9efd257</t>
+  </si>
+  <si>
+    <t>참조:https://medium.com/@jsh901220/react%EC%97%90-scss-%EC%A0%81%EC%9A%A9%EB%B0%8F-%EA%B8%B0%EB%B3%B8-%EC%82%AC%EC%9A%A9%EB%B2%95-1-c7bd2895f5a6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,37 +609,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE7D061-720C-47FE-8AC4-7DE36048BAAE}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -648,47 +665,62 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +735,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -714,22 +746,22 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -742,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -773,7 +805,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -781,27 +813,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706ACAB8-8C26-4878-97AF-1325468CD323}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +855,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -848,12 +880,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -864,4 +896,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92952F4-FDDA-4D76-9437-43503456CBC6}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BC512D7F-612A-4E17-BF66-292392FEE4BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9CAF12-4E41-44D5-B019-A9F6A1C203E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571512EE-A6B5-4B99-B224-8FA235EF58DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2145" windowWidth="16920" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13965" yWindow="4605" windowWidth="23265" windowHeight="9300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="스케쥴" sheetId="3" r:id="rId5"/>
     <sheet name="참조메소드" sheetId="6" r:id="rId6"/>
     <sheet name="참조" sheetId="7" r:id="rId7"/>
+    <sheet name="에러관리" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -210,12 +211,24 @@
     <t>참조:https://medium.com/@jsh901220/react%EC%97%90-scss-%EC%A0%81%EC%9A%A9%EB%B0%8F-%EA%B8%B0%EB%B3%B8-%EC%82%AC%EC%9A%A9%EB%B2%95-1-c7bd2895f5a6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>yarn add global react-scripts</t>
+  </si>
+  <si>
+    <t>1.'react-scripts'은(는) 내부 또는 외부 명령, 실행할 수 있는 프로그램, 또는
+배치 파일이 아닙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm, yarn을 전역설정해주었다. 패키지 내에서만 설정해서 3일간 잘 되었으나 어느순간 되지 않았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +294,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -309,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -318,6 +337,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -653,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE7D061-720C-47FE-8AC4-7DE36048BAAE}">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -920,4 +941,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280C57F-C9A6-4D93-83C0-D022EF0A9790}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571512EE-A6B5-4B99-B224-8FA235EF58DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126A0D67-346D-47B0-B4DA-C8E3385E79C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="4605" windowWidth="23265" windowHeight="9300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18885" yWindow="3150" windowWidth="23265" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">:기존 Date함수는 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>참조URL:https://momentjs.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,6 +217,25 @@
   </si>
   <si>
     <t>npm, yarn을 전역설정해주었다. 패키지 내에서만 설정해서 3일간 잘 되었으나 어느순간 되지 않았다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>redux 스토어 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://deminoth.github.io/redux/basics/Reducers.html</t>
+  </si>
+  <si>
+    <t>2.Redux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:기존 Date함수는 원하는 결과까지 처리가 너무 많다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:가장 사용률이 높은 상태관리 라이브러리.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -339,6 +354,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -731,17 +747,17 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -753,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB5DE8-7419-4EDA-B549-8F1AF8520178}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -777,17 +793,28 @@
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -826,7 +853,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -876,7 +903,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +928,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -921,25 +948,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92952F4-FDDA-4D76-9437-43503456CBC6}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BC512D7F-612A-4E17-BF66-292392FEE4BD}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{70990C68-8A53-4336-8242-782C26C4192C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -947,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280C57F-C9A6-4D93-83C0-D022EF0A9790}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -959,17 +998,17 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126A0D67-346D-47B0-B4DA-C8E3385E79C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C548B-4342-4534-B89F-956BFB1EA457}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18885" yWindow="3150" windowWidth="23265" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16710" yWindow="5400" windowWidth="23265" windowHeight="9300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -238,12 +238,50 @@
     <t>:가장 사용률이 높은 상태관리 라이브러리.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>3.immer.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불변성 유지 라이브러리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불변성을 유지해야하는 이유?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>es6 문법정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@decody/ES6-Sheetsheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +352,27 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -343,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -355,6 +414,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -769,10 +829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DB5DE8-7419-4EDA-B549-8F1AF8520178}">
-  <dimension ref="B1:C11"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -809,6 +869,21 @@
     <row r="11" spans="2:3">
       <c r="C11" s="8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="18.75">
+      <c r="C17" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92952F4-FDDA-4D76-9437-43503456CBC6}">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -971,14 +1046,25 @@
         <v>40</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BC512D7F-612A-4E17-BF66-292392FEE4BD}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{70990C68-8A53-4336-8242-782C26C4192C}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{E800D288-8858-47AF-8EA9-3F3FA86BAABB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/document/환경구축.xlsx
+++ b/document/환경구축.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\react_calendar\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61C548B-4342-4534-B89F-956BFB1EA457}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5407CCA-ABDC-4746-B2D2-4854017EC741}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16710" yWindow="5400" windowWidth="23265" windowHeight="9300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="5640" windowWidth="23265" windowHeight="9300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목표" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>REACT PROJECT 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,6 +275,20 @@
   </si>
   <si>
     <t>https://velog.io/@decody/ES6-Sheetsheet</t>
+  </si>
+  <si>
+    <t>REST파라메타와 스프레드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jeong-pro.tistory.com/117</t>
+  </si>
+  <si>
+    <t>불변성을 지키는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velopert.com/3640</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92952F4-FDDA-4D76-9437-43503456CBC6}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1056,15 +1070,37 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{BC512D7F-612A-4E17-BF66-292392FEE4BD}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{70990C68-8A53-4336-8242-782C26C4192C}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{E800D288-8858-47AF-8EA9-3F3FA86BAABB}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{6CA0E64A-5FFD-44DA-9C55-C37483A8DB99}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{1A6D63BE-AB81-49E3-A089-C70B50A97764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
